--- a/src/test/resources/testData/Option.xlsx
+++ b/src/test/resources/testData/Option.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5545863-F4BD-4B2C-B895-49E1393284A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C20DA6-7B1D-466D-B304-00B39D381D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -52,27 +52,6 @@
   </si>
   <si>
     <t>option_import_automation</t>
-  </si>
-  <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>8377470653</t>
-  </si>
-  <si>
-    <t>6951740955</t>
-  </si>
-  <si>
-    <t>1806116156</t>
-  </si>
-  <si>
-    <t>6912657624</t>
-  </si>
-  <si>
-    <t>8357636790</t>
-  </si>
-  <si>
-    <t>7914100322</t>
   </si>
   <si>
     <t>8993944845</t>
@@ -82,7 +61,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,11 +403,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -451,7 +429,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/src/test/resources/testData/Option.xlsx
+++ b/src/test/resources/testData/Option.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Code</t>
   </si>
@@ -55,12 +55,16 @@
   </si>
   <si>
     <t>8993944845</t>
+  </si>
+  <si>
+    <t>5713873592</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,11 +407,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -429,7 +433,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>

--- a/src/test/resources/testData/Option.xlsx
+++ b/src/test/resources/testData/Option.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fkara\Desktop\workspace\EfecturaTestAutomation\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C20DA6-7B1D-466D-B304-00B39D381D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270AB24A-F38B-4FFB-87F9-E6CCA561322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Code</t>
   </si>
@@ -51,20 +51,13 @@
     <t>option_import_TR</t>
   </si>
   <si>
-    <t>option_import_automation</t>
-  </si>
-  <si>
-    <t>8993944845</t>
-  </si>
-  <si>
-    <t>5713873592</t>
+    <t>2.8.15AttributeImport-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,16 +395,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -432,8 +425,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>672361050</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -450,5 +443,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;KA80000 PUBLIC</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>